--- a/scc-files/excel/person.xlsx
+++ b/scc-files/excel/person.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="581" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="581" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="person" sheetId="7" r:id="rId2"/>
+    <sheet name="res.usrs" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">person!$A$1:$H$25</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="235">
   <si>
     <t>First Name</t>
   </si>
@@ -136,9 +137,6 @@
     <t>bjenks</t>
   </si>
   <si>
-    <t>appleton</t>
-  </si>
-  <si>
     <t>#1 - 2 Swift Way</t>
   </si>
   <si>
@@ -734,6 +732,36 @@
   </si>
   <si>
     <t>DU</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>notification_email_send</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>maestro</t>
   </si>
 </sst>
 </file>
@@ -796,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1153,19 +1181,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1301,7 +1316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1365,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1379,7 +1393,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1389,24 +1403,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1415,16 +1429,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1436,9 +1444,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1448,6 +1453,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1820,61 +1849,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" style="70" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.8984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>204</v>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>203</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
@@ -1885,18 +1914,19 @@
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="28" t="s">
+        <v>199</v>
+      </c>
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
-      <c r="AB1" s="30"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>210</v>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>209</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>0</v>
@@ -1904,84 +1934,87 @@
       <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="J2" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="33" t="s">
+      <c r="L2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="O2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="P2" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" s="46" t="s">
+      <c r="P2" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="S2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="T2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="U2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="V2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="W2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="X2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="50" t="s">
+      <c r="Y2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Z2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="47" t="s">
+      <c r="AA2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="48" t="s">
+      <c r="AB2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="52" t="s">
+      <c r="AC2" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="73">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1990,1920 +2023,2008 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="84" t="str">
+        <f>CONCATENATE(LEFT(B3),LEFT(C3))</f>
+        <v>BJ</v>
+      </c>
+      <c r="E3" s="77">
         <v>21551</v>
       </c>
-      <c r="E3" s="60" t="str">
-        <f t="shared" ref="E3:E24" si="0">CONCATENATE(F3,"@",$C$26)</f>
+      <c r="F3" s="59" t="str">
+        <f t="shared" ref="F3:F24" si="0">CONCATENATE(G3,"@",$C$26)</f>
         <v>bjenks@firefly.scc.loc</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="38">
+        <v>13054</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="10">
-        <v>2</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="Z3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="AB3" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="39">
-        <v>13054</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="69">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB3" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="73">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="68">
+      <c r="D4" s="63" t="str">
+        <f t="shared" ref="D4:D24" si="1">CONCATENATE(LEFT(B4),LEFT(C4))</f>
+        <v>BS</v>
+      </c>
+      <c r="E4" s="78">
         <v>14277</v>
       </c>
-      <c r="E4" s="61" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>bswift@firefly.scc.loc</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="39">
+        <v>1</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I4" s="40">
-        <v>1</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="40" t="s">
+      <c r="Z4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="AB4" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB4" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="73">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="68">
+      <c r="D5" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>BA</v>
+      </c>
+      <c r="E5" s="78">
         <v>21610</v>
       </c>
-      <c r="E5" s="61" t="str">
+      <c r="F5" s="60" t="str">
         <f t="shared" si="0"/>
         <v>barmstrong@firefly.scc.loc</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="39">
+        <v>2</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="40">
-        <v>2</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="40" t="s">
+      <c r="Z5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="40" t="s">
+      <c r="AB5" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U5" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB5" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="73">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="68">
+      <c r="D6" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>FM</v>
+      </c>
+      <c r="E6" s="78">
         <v>21641</v>
       </c>
-      <c r="E6" s="61" t="str">
+      <c r="F6" s="60" t="str">
         <f t="shared" si="0"/>
         <v>fmason@firefly.scc.loc</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="39">
+        <v>2</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="40">
-        <v>2</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="P6" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="40" t="s">
+      <c r="Z6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="AB6" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB6" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="68">
+      <c r="D7" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>GJ</v>
+      </c>
+      <c r="E7" s="78">
         <v>21671</v>
       </c>
-      <c r="E7" s="61" t="str">
+      <c r="F7" s="60" t="str">
         <f t="shared" si="0"/>
         <v>gjackson@firefly.scc.loc</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="39">
+        <v>3</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="40">
-        <v>3</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="40" t="s">
+      <c r="Z7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="AB7" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U7" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB7" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="73">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="68">
+      <c r="D8" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>HB</v>
+      </c>
+      <c r="E8" s="78">
         <v>21702</v>
       </c>
-      <c r="E8" s="61" t="str">
+      <c r="F8" s="60" t="str">
         <f t="shared" si="0"/>
         <v>hbaldwin@firefly.scc.loc</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="39">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="40">
-        <v>1</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="40" t="s">
+      <c r="Z8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S8" s="40" t="s">
+      <c r="AB8" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U8" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Y8" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA8" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB8" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="73">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="68">
+      <c r="D9" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>HR</v>
+      </c>
+      <c r="E9" s="78">
         <v>21732</v>
       </c>
-      <c r="E9" s="61" t="str">
+      <c r="F9" s="60" t="str">
         <f t="shared" si="0"/>
         <v>hrandall@firefly.scc.loc</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="39">
+        <v>4</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q9" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I9" s="40">
-        <v>4</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="P9" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="40" t="s">
+      <c r="Z9" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="40" t="s">
+      <c r="AB9" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U9" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Y9" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA9" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="73">
-        <v>1</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="68">
+      <c r="D10" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>JW</v>
+      </c>
+      <c r="E10" s="78">
         <v>21763</v>
       </c>
-      <c r="E10" s="61" t="str">
+      <c r="F10" s="60" t="str">
         <f t="shared" si="0"/>
         <v>jwood@firefly.scc.loc</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="39">
+        <v>5</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" s="40">
-        <v>5</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="40" t="s">
+      <c r="Z10" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="AB10" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U10" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="Y10" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA10" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB10" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="73">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="68">
+      <c r="D11" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>JP</v>
+      </c>
+      <c r="E11" s="78">
         <v>21794</v>
       </c>
-      <c r="E11" s="61" t="str">
+      <c r="F11" s="60" t="str">
         <f t="shared" si="0"/>
         <v>jperiod@firefly.scc.loc</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="39">
+        <v>1</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11" s="40">
-        <v>1</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P11" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R11" s="40" t="s">
+      <c r="Z11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="AB11" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U11" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="Y11" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA11" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB11" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="73">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="68">
+      <c r="D12" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>JH</v>
+      </c>
+      <c r="E12" s="78">
         <v>21824</v>
       </c>
-      <c r="E12" s="61" t="str">
+      <c r="F12" s="60" t="str">
         <f t="shared" si="0"/>
         <v>jhaddon@firefly.scc.loc</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="39">
+        <v>6</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" s="40">
-        <v>6</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" s="40" t="s">
+      <c r="Z12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="40" t="s">
+      <c r="AB12" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U12" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA12" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="68">
+      <c r="D13" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>JM</v>
+      </c>
+      <c r="E13" s="78">
         <v>21855</v>
       </c>
-      <c r="E13" s="61" t="str">
+      <c r="F13" s="60" t="str">
         <f t="shared" si="0"/>
         <v>jmorse@firefly.scc.loc</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="39">
+        <v>4</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="40">
-        <v>4</v>
-      </c>
-      <c r="J13" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="P13" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="40" t="s">
+      <c r="Z13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="40" t="s">
+      <c r="AB13" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U13" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Y13" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA13" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB13" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
-        <v>1</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="68">
+      <c r="D14" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>JS</v>
+      </c>
+      <c r="E14" s="78">
         <v>21885</v>
       </c>
-      <c r="E14" s="61" t="str">
+      <c r="F14" s="60" t="str">
         <f t="shared" si="0"/>
         <v>jsharp@firefly.scc.loc</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="39">
+        <v>1</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
-      <c r="J14" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="40" t="s">
+      <c r="Z14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="40" t="s">
+      <c r="AB14" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC14" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U14" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Y14" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB14" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="68">
+      <c r="D15" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>MB</v>
+      </c>
+      <c r="E15" s="78">
         <v>12785</v>
       </c>
-      <c r="E15" s="61" t="str">
+      <c r="F15" s="60" t="str">
         <f t="shared" si="0"/>
         <v>mbaggert@firefly.scc.loc</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="39">
+        <v>1</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
-      <c r="J15" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P15" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="40" t="s">
+      <c r="Z15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S15" s="40" t="s">
+      <c r="AB15" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC15" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U15" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="69">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA15" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB15" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
-        <v>1</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="68">
+      <c r="D16" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>MN</v>
+      </c>
+      <c r="E16" s="78">
         <v>23815</v>
       </c>
-      <c r="E16" s="61" t="str">
+      <c r="F16" s="60" t="str">
         <f t="shared" si="0"/>
         <v>mnestor@firefly.scc.loc</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="39">
+        <v>0</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V16" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="O16" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P16" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="40" t="s">
+      <c r="Z16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="40" t="s">
+      <c r="AB16" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U16" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
+        <v>1</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Y16" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA16" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB16" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
-        <v>1</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="68">
+      <c r="D17" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>MB</v>
+      </c>
+      <c r="E17" s="78">
         <v>21976</v>
       </c>
-      <c r="E17" s="61" t="str">
+      <c r="F17" s="60" t="str">
         <f t="shared" si="0"/>
         <v>mblair@firefly.scc.loc</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J17" s="39">
+        <v>2</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V17" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="40">
-        <v>2</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="P17" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="40" t="s">
+      <c r="Z17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="40" t="s">
+      <c r="AB17" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U17" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
+        <v>1</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="Y17" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA17" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB17" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="68">
+      <c r="D18" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>MD</v>
+      </c>
+      <c r="E18" s="78">
         <v>22007</v>
       </c>
-      <c r="E18" s="61" t="str">
+      <c r="F18" s="60" t="str">
         <f t="shared" si="0"/>
         <v>mdelazes@firefly.scc.loc</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="G18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" s="39">
+        <v>7</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q18" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18" s="40">
-        <v>7</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="P18" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="40" t="s">
+      <c r="Z18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="40" t="s">
+      <c r="AB18" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T18" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U18" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="69">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Y18" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA18" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB18" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="68">
+      <c r="D19" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>NN</v>
+      </c>
+      <c r="E19" s="78">
         <v>22037</v>
       </c>
-      <c r="E19" s="61" t="str">
+      <c r="F19" s="60" t="str">
         <f t="shared" si="0"/>
         <v>nnewton@firefly.scc.loc</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="39">
+        <v>1</v>
+      </c>
+      <c r="K19" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="40">
-        <v>1</v>
-      </c>
-      <c r="J19" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P19" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="40" t="s">
+      <c r="Z19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="40" t="s">
+      <c r="AB19" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC19" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T19" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U19" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Y19" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA19" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB19" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
-        <v>1</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="68">
+      <c r="D20" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>RS</v>
+      </c>
+      <c r="E20" s="78">
         <v>13667</v>
       </c>
-      <c r="E20" s="61" t="str">
+      <c r="F20" s="60" t="str">
         <f t="shared" si="0"/>
         <v>rsampson@firefly.scc.loc</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="39">
+        <v>1</v>
+      </c>
+      <c r="K20" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="40">
-        <v>1</v>
-      </c>
-      <c r="J20" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P20" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="40" t="s">
+      <c r="Z20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="40" t="s">
+      <c r="AB20" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T20" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U20" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Y20" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA20" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB20" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="73">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="68">
+      <c r="D21" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>SM</v>
+      </c>
+      <c r="E21" s="78">
         <v>22098</v>
       </c>
-      <c r="E21" s="61" t="str">
+      <c r="F21" s="60" t="str">
         <f t="shared" si="0"/>
         <v>smalloy@firefly.scc.loc</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" s="39">
+        <v>6</v>
+      </c>
+      <c r="K21" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q21" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="40">
-        <v>6</v>
-      </c>
-      <c r="J21" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="P21" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="40" t="s">
+      <c r="Z21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="40" t="s">
+      <c r="AB21" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U21" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X21" s="5" t="s">
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="69">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="Y21" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA21" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB21" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="73">
-        <v>1</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>132</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="68">
+        <v>35</v>
+      </c>
+      <c r="D22" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>TS</v>
+      </c>
+      <c r="E22" s="78">
         <v>21879</v>
       </c>
-      <c r="E22" s="61" t="str">
+      <c r="F22" s="60" t="str">
         <f t="shared" si="0"/>
         <v>tswift@firefly.scc.loc</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="39">
+        <v>1</v>
+      </c>
+      <c r="K22" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V22" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="40">
-        <v>1</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P22" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="40" t="s">
+      <c r="Z22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="40" t="s">
+      <c r="AB22" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U22" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="Y22" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA22" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB22" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="73">
-        <v>1</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="68">
+      <c r="D23" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>WD</v>
+      </c>
+      <c r="E23" s="78">
         <v>22160</v>
       </c>
-      <c r="E23" s="61" t="str">
+      <c r="F23" s="60" t="str">
         <f t="shared" si="0"/>
         <v>wdamon@firefly.scc.loc</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" s="39">
+        <v>1</v>
+      </c>
+      <c r="K23" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q23" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="37">
+        <v>13054</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I23" s="40">
-        <v>1</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="O23" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="P23" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="40" t="s">
+      <c r="Z23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="S23" s="40" t="s">
+      <c r="AB23" s="37">
+        <v>13054</v>
+      </c>
+      <c r="AC23" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="38">
-        <v>13054</v>
-      </c>
-      <c r="U23" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="X23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="Y23" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA23" s="38">
-        <v>13054</v>
-      </c>
-      <c r="AB23" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="74">
-        <v>1</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="69">
+      <c r="D24" s="85" t="str">
+        <f t="shared" si="1"/>
+        <v>WC</v>
+      </c>
+      <c r="E24" s="79">
         <v>22190</v>
       </c>
-      <c r="E24" s="62" t="str">
+      <c r="F24" s="61" t="str">
         <f t="shared" si="0"/>
         <v>wcrawford@firefly.scc.loc</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="40">
+        <v>13054</v>
+      </c>
+      <c r="V24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="W24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="R24" s="24" t="s">
+      <c r="Z24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="AB24" s="40">
+        <v>13054</v>
+      </c>
+      <c r="AC24" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="T24" s="41">
-        <v>13054</v>
-      </c>
-      <c r="U24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="V24" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24" s="19" t="s">
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B28" s="56"/>
+      <c r="C28" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="Y24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA24" s="41">
-        <v>13054</v>
-      </c>
-      <c r="AB24" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
-      <c r="C28" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3924,938 +4045,938 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="47" t="s">
+      <c r="G1" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="B2" s="73">
+        <v>1</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="77">
-        <v>1</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="76" t="s">
+      <c r="G2" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="I2" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="B3" s="73">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="77">
-        <v>1</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="78" t="s">
+      <c r="E3" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="H3" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="I3" s="77">
+      <c r="I3" s="73">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="str">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="57" t="str">
+        <f>Master!G3</f>
+        <v>bjenks</v>
+      </c>
+      <c r="B4" s="63">
+        <f>Master!A3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="63" t="str">
+        <f>Master!H3</f>
+        <v>maestro</v>
+      </c>
+      <c r="D4" s="62" t="str">
         <f>Master!F3</f>
-        <v>bjenks</v>
-      </c>
-      <c r="B4" s="64">
-        <f>Master!A3</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="64" t="str">
-        <f>Master!G3</f>
-        <v>appleton</v>
-      </c>
-      <c r="D4" s="63" t="str">
-        <f>Master!E3</f>
         <v>bjenks@firefly.scc.loc</v>
       </c>
-      <c r="E4" s="64" t="str">
+      <c r="E4" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B3),LEFT(Master!C3))</f>
         <v>BJ</v>
       </c>
-      <c r="F4" s="58" t="str">
+      <c r="F4" s="57" t="str">
         <f>Master!C3</f>
         <v>Jenks</v>
       </c>
-      <c r="G4" s="58" t="str">
+      <c r="G4" s="57" t="str">
         <f>Master!B3</f>
         <v>Barcoe</v>
       </c>
-      <c r="H4" s="64" t="str">
+      <c r="H4" s="63" t="str">
         <f>CONCATENATE(LEFT(G4,1),LEFT(F4,1))</f>
         <v>BJ</v>
       </c>
-      <c r="I4" s="64">
-        <f>Master!I3</f>
+      <c r="I4" s="63">
+        <f>Master!J3</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="str">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="str">
+        <f>Master!G4</f>
+        <v>bswift</v>
+      </c>
+      <c r="B5" s="63">
+        <f>Master!A4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="63" t="str">
+        <f>Master!H4</f>
+        <v>maestro</v>
+      </c>
+      <c r="D5" s="62" t="str">
         <f>Master!F4</f>
-        <v>bswift</v>
-      </c>
-      <c r="B5" s="64">
-        <f>Master!A4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="64" t="str">
-        <f>Master!G4</f>
-        <v>appleton</v>
-      </c>
-      <c r="D5" s="63" t="str">
-        <f>Master!E4</f>
         <v>bswift@firefly.scc.loc</v>
       </c>
-      <c r="E5" s="64" t="str">
+      <c r="E5" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B4),LEFT(Master!C4))</f>
         <v>BS</v>
       </c>
-      <c r="F5" s="58" t="str">
+      <c r="F5" s="57" t="str">
         <f>Master!C4</f>
         <v>Swift</v>
       </c>
-      <c r="G5" s="58" t="str">
+      <c r="G5" s="57" t="str">
         <f>Master!B4</f>
         <v>Barton</v>
       </c>
-      <c r="H5" s="64" t="str">
+      <c r="H5" s="63" t="str">
         <f t="shared" ref="H5:H25" si="0">CONCATENATE(LEFT(G5,1),LEFT(F5,1))</f>
         <v>BS</v>
       </c>
-      <c r="I5" s="64">
-        <f>Master!I4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="str">
+      <c r="I5" s="63">
+        <f>Master!J4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="str">
+        <f>Master!G5</f>
+        <v>barmstrong</v>
+      </c>
+      <c r="B6" s="63">
+        <f>Master!A5</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="63" t="str">
+        <f>Master!H5</f>
+        <v>maestro</v>
+      </c>
+      <c r="D6" s="62" t="str">
         <f>Master!F5</f>
-        <v>barmstrong</v>
-      </c>
-      <c r="B6" s="64">
-        <f>Master!A5</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="64" t="str">
-        <f>Master!G5</f>
-        <v>appleton</v>
-      </c>
-      <c r="D6" s="63" t="str">
-        <f>Master!E5</f>
         <v>barmstrong@firefly.scc.loc</v>
       </c>
-      <c r="E6" s="64" t="str">
+      <c r="E6" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B5),LEFT(Master!C5))</f>
         <v>BA</v>
       </c>
-      <c r="F6" s="58" t="str">
+      <c r="F6" s="57" t="str">
         <f>Master!C5</f>
         <v>Armstrong</v>
       </c>
-      <c r="G6" s="58" t="str">
+      <c r="G6" s="57" t="str">
         <f>Master!B5</f>
         <v>Bub</v>
       </c>
-      <c r="H6" s="64" t="str">
+      <c r="H6" s="63" t="str">
         <f t="shared" si="0"/>
         <v>BA</v>
       </c>
-      <c r="I6" s="64">
-        <f>Master!I5</f>
+      <c r="I6" s="63">
+        <f>Master!J5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="str">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="str">
+        <f>Master!G6</f>
+        <v>fmason</v>
+      </c>
+      <c r="B7" s="63">
+        <f>Master!A6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="63" t="str">
+        <f>Master!H6</f>
+        <v>maestro</v>
+      </c>
+      <c r="D7" s="62" t="str">
         <f>Master!F6</f>
-        <v>fmason</v>
-      </c>
-      <c r="B7" s="64">
-        <f>Master!A6</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="64" t="str">
-        <f>Master!G6</f>
-        <v>appleton</v>
-      </c>
-      <c r="D7" s="63" t="str">
-        <f>Master!E6</f>
         <v>fmason@firefly.scc.loc</v>
       </c>
-      <c r="E7" s="64" t="str">
+      <c r="E7" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B6),LEFT(Master!C6))</f>
         <v>FM</v>
       </c>
-      <c r="F7" s="58" t="str">
+      <c r="F7" s="57" t="str">
         <f>Master!C6</f>
         <v>Mason</v>
       </c>
-      <c r="G7" s="58" t="str">
+      <c r="G7" s="57" t="str">
         <f>Master!B6</f>
         <v>Frank</v>
       </c>
-      <c r="H7" s="64" t="str">
+      <c r="H7" s="63" t="str">
         <f t="shared" si="0"/>
         <v>FM</v>
       </c>
-      <c r="I7" s="64">
-        <f>Master!I6</f>
+      <c r="I7" s="63">
+        <f>Master!J6</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="str">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="str">
+        <f>Master!G7</f>
+        <v>gjackson</v>
+      </c>
+      <c r="B8" s="63">
+        <f>Master!A7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="63" t="str">
+        <f>Master!H7</f>
+        <v>maestro</v>
+      </c>
+      <c r="D8" s="62" t="str">
         <f>Master!F7</f>
-        <v>gjackson</v>
-      </c>
-      <c r="B8" s="64">
-        <f>Master!A7</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="64" t="str">
-        <f>Master!G7</f>
-        <v>appleton</v>
-      </c>
-      <c r="D8" s="63" t="str">
-        <f>Master!E7</f>
         <v>gjackson@firefly.scc.loc</v>
       </c>
-      <c r="E8" s="64" t="str">
+      <c r="E8" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B7),LEFT(Master!C7))</f>
         <v>GJ</v>
       </c>
-      <c r="F8" s="58" t="str">
+      <c r="F8" s="57" t="str">
         <f>Master!C7</f>
         <v>Jackson</v>
       </c>
-      <c r="G8" s="58" t="str">
+      <c r="G8" s="57" t="str">
         <f>Master!B7</f>
         <v>Garret</v>
       </c>
-      <c r="H8" s="64" t="str">
+      <c r="H8" s="63" t="str">
         <f t="shared" si="0"/>
         <v>GJ</v>
       </c>
-      <c r="I8" s="64">
-        <f>Master!I7</f>
+      <c r="I8" s="63">
+        <f>Master!J7</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="str">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="str">
+        <f>Master!G8</f>
+        <v>hbaldwin</v>
+      </c>
+      <c r="B9" s="63">
+        <f>Master!A8</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="63" t="str">
+        <f>Master!H8</f>
+        <v>maestro</v>
+      </c>
+      <c r="D9" s="62" t="str">
         <f>Master!F8</f>
-        <v>hbaldwin</v>
-      </c>
-      <c r="B9" s="64">
-        <f>Master!A8</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="64" t="str">
-        <f>Master!G8</f>
-        <v>appleton</v>
-      </c>
-      <c r="D9" s="63" t="str">
-        <f>Master!E8</f>
         <v>hbaldwin@firefly.scc.loc</v>
       </c>
-      <c r="E9" s="64" t="str">
+      <c r="E9" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B8),LEFT(Master!C8))</f>
         <v>HB</v>
       </c>
-      <c r="F9" s="58" t="str">
+      <c r="F9" s="57" t="str">
         <f>Master!C8</f>
         <v>Baldwin</v>
       </c>
-      <c r="G9" s="58" t="str">
+      <c r="G9" s="57" t="str">
         <f>Master!B8</f>
         <v>Hank</v>
       </c>
-      <c r="H9" s="64" t="str">
+      <c r="H9" s="63" t="str">
         <f t="shared" si="0"/>
         <v>HB</v>
       </c>
-      <c r="I9" s="64">
-        <f>Master!I8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="str">
+      <c r="I9" s="63">
+        <f>Master!J8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="str">
+        <f>Master!G9</f>
+        <v>hrandall</v>
+      </c>
+      <c r="B10" s="63">
+        <f>Master!A9</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="63" t="str">
+        <f>Master!H9</f>
+        <v>maestro</v>
+      </c>
+      <c r="D10" s="62" t="str">
         <f>Master!F9</f>
-        <v>hrandall</v>
-      </c>
-      <c r="B10" s="64">
-        <f>Master!A9</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="64" t="str">
-        <f>Master!G9</f>
-        <v>appleton</v>
-      </c>
-      <c r="D10" s="63" t="str">
-        <f>Master!E9</f>
         <v>hrandall@firefly.scc.loc</v>
       </c>
-      <c r="E10" s="64" t="str">
+      <c r="E10" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B9),LEFT(Master!C9))</f>
         <v>HR</v>
       </c>
-      <c r="F10" s="58" t="str">
+      <c r="F10" s="57" t="str">
         <f>Master!C9</f>
         <v>Randall</v>
       </c>
-      <c r="G10" s="58" t="str">
+      <c r="G10" s="57" t="str">
         <f>Master!B9</f>
         <v>Helen</v>
       </c>
-      <c r="H10" s="64" t="str">
+      <c r="H10" s="63" t="str">
         <f t="shared" si="0"/>
         <v>HR</v>
       </c>
-      <c r="I10" s="64">
-        <f>Master!I9</f>
+      <c r="I10" s="63">
+        <f>Master!J9</f>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="str">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="57" t="str">
+        <f>Master!G10</f>
+        <v>jwood</v>
+      </c>
+      <c r="B11" s="63">
+        <f>Master!A10</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="63" t="str">
+        <f>Master!H10</f>
+        <v>maestro</v>
+      </c>
+      <c r="D11" s="62" t="str">
         <f>Master!F10</f>
-        <v>jwood</v>
-      </c>
-      <c r="B11" s="64">
-        <f>Master!A10</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="64" t="str">
-        <f>Master!G10</f>
-        <v>appleton</v>
-      </c>
-      <c r="D11" s="63" t="str">
-        <f>Master!E10</f>
         <v>jwood@firefly.scc.loc</v>
       </c>
-      <c r="E11" s="64" t="str">
+      <c r="E11" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B10),LEFT(Master!C10))</f>
         <v>JW</v>
       </c>
-      <c r="F11" s="58" t="str">
+      <c r="F11" s="57" t="str">
         <f>Master!C10</f>
         <v>Wood</v>
       </c>
-      <c r="G11" s="58" t="str">
+      <c r="G11" s="57" t="str">
         <f>Master!B10</f>
         <v>Jacab</v>
       </c>
-      <c r="H11" s="64" t="str">
+      <c r="H11" s="63" t="str">
         <f t="shared" si="0"/>
         <v>JW</v>
       </c>
-      <c r="I11" s="64">
-        <f>Master!I10</f>
+      <c r="I11" s="63">
+        <f>Master!J10</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="str">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="str">
+        <f>Master!G11</f>
+        <v>jperiod</v>
+      </c>
+      <c r="B12" s="63">
+        <f>Master!A11</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="63" t="str">
+        <f>Master!H11</f>
+        <v>maestro</v>
+      </c>
+      <c r="D12" s="62" t="str">
         <f>Master!F11</f>
-        <v>jperiod</v>
-      </c>
-      <c r="B12" s="64">
-        <f>Master!A11</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="64" t="str">
-        <f>Master!G11</f>
-        <v>appleton</v>
-      </c>
-      <c r="D12" s="63" t="str">
-        <f>Master!E11</f>
         <v>jperiod@firefly.scc.loc</v>
       </c>
-      <c r="E12" s="64" t="str">
+      <c r="E12" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B11),LEFT(Master!C11))</f>
         <v>JP</v>
       </c>
-      <c r="F12" s="58" t="str">
+      <c r="F12" s="57" t="str">
         <f>Master!C11</f>
         <v>Period</v>
       </c>
-      <c r="G12" s="58" t="str">
+      <c r="G12" s="57" t="str">
         <f>Master!B11</f>
         <v>James</v>
       </c>
-      <c r="H12" s="64" t="str">
+      <c r="H12" s="63" t="str">
         <f t="shared" si="0"/>
         <v>JP</v>
       </c>
-      <c r="I12" s="64">
-        <f>Master!I11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="str">
+      <c r="I12" s="63">
+        <f>Master!J11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="str">
+        <f>Master!G12</f>
+        <v>jhaddon</v>
+      </c>
+      <c r="B13" s="63">
+        <f>Master!A12</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="63" t="str">
+        <f>Master!H12</f>
+        <v>maestro</v>
+      </c>
+      <c r="D13" s="62" t="str">
         <f>Master!F12</f>
-        <v>jhaddon</v>
-      </c>
-      <c r="B13" s="64">
-        <f>Master!A12</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="64" t="str">
-        <f>Master!G12</f>
-        <v>appleton</v>
-      </c>
-      <c r="D13" s="63" t="str">
-        <f>Master!E12</f>
         <v>jhaddon@firefly.scc.loc</v>
       </c>
-      <c r="E13" s="64" t="str">
+      <c r="E13" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B12),LEFT(Master!C12))</f>
         <v>JH</v>
       </c>
-      <c r="F13" s="58" t="str">
+      <c r="F13" s="57" t="str">
         <f>Master!C12</f>
         <v>Haddon</v>
       </c>
-      <c r="G13" s="58" t="str">
+      <c r="G13" s="57" t="str">
         <f>Master!B12</f>
         <v>Jennie</v>
       </c>
-      <c r="H13" s="64" t="str">
+      <c r="H13" s="63" t="str">
         <f t="shared" si="0"/>
         <v>JH</v>
       </c>
-      <c r="I13" s="64">
-        <f>Master!I12</f>
+      <c r="I13" s="63">
+        <f>Master!J12</f>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="str">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="57" t="str">
+        <f>Master!G13</f>
+        <v>jmorse</v>
+      </c>
+      <c r="B14" s="63">
+        <f>Master!A13</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="63" t="str">
+        <f>Master!H13</f>
+        <v>maestro</v>
+      </c>
+      <c r="D14" s="62" t="str">
         <f>Master!F13</f>
-        <v>jmorse</v>
-      </c>
-      <c r="B14" s="64">
-        <f>Master!A13</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="64" t="str">
-        <f>Master!G13</f>
-        <v>appleton</v>
-      </c>
-      <c r="D14" s="63" t="str">
-        <f>Master!E13</f>
         <v>jmorse@firefly.scc.loc</v>
       </c>
-      <c r="E14" s="64" t="str">
+      <c r="E14" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B13),LEFT(Master!C13))</f>
         <v>JM</v>
       </c>
-      <c r="F14" s="58" t="str">
+      <c r="F14" s="57" t="str">
         <f>Master!C13</f>
         <v>Morse</v>
       </c>
-      <c r="G14" s="58" t="str">
+      <c r="G14" s="57" t="str">
         <f>Master!B13</f>
         <v>Jennie</v>
       </c>
-      <c r="H14" s="64" t="str">
+      <c r="H14" s="63" t="str">
         <f t="shared" si="0"/>
         <v>JM</v>
       </c>
-      <c r="I14" s="64">
-        <f>Master!I13</f>
+      <c r="I14" s="63">
+        <f>Master!J13</f>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="str">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="str">
+        <f>Master!G14</f>
+        <v>jsharp</v>
+      </c>
+      <c r="B15" s="63">
+        <f>Master!A14</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="63" t="str">
+        <f>Master!H14</f>
+        <v>maestro</v>
+      </c>
+      <c r="D15" s="62" t="str">
         <f>Master!F14</f>
-        <v>jsharp</v>
-      </c>
-      <c r="B15" s="64">
-        <f>Master!A14</f>
-        <v>1</v>
-      </c>
-      <c r="C15" s="64" t="str">
-        <f>Master!G14</f>
-        <v>appleton</v>
-      </c>
-      <c r="D15" s="63" t="str">
-        <f>Master!E14</f>
         <v>jsharp@firefly.scc.loc</v>
       </c>
-      <c r="E15" s="64" t="str">
+      <c r="E15" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B14),LEFT(Master!C14))</f>
         <v>JS</v>
       </c>
-      <c r="F15" s="58" t="str">
+      <c r="F15" s="57" t="str">
         <f>Master!C14</f>
         <v>Sharp</v>
       </c>
-      <c r="G15" s="58" t="str">
+      <c r="G15" s="57" t="str">
         <f>Master!B14</f>
         <v>John</v>
       </c>
-      <c r="H15" s="64" t="str">
+      <c r="H15" s="63" t="str">
         <f t="shared" si="0"/>
         <v>JS</v>
       </c>
-      <c r="I15" s="64">
-        <f>Master!I14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="str">
+      <c r="I15" s="63">
+        <f>Master!J14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="str">
+        <f>Master!G15</f>
+        <v>mbaggert</v>
+      </c>
+      <c r="B16" s="63">
+        <f>Master!A15</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="63" t="str">
+        <f>Master!H15</f>
+        <v>maestro</v>
+      </c>
+      <c r="D16" s="62" t="str">
         <f>Master!F15</f>
-        <v>mbaggert</v>
-      </c>
-      <c r="B16" s="64">
-        <f>Master!A15</f>
-        <v>1</v>
-      </c>
-      <c r="C16" s="64" t="str">
-        <f>Master!G15</f>
-        <v>appleton</v>
-      </c>
-      <c r="D16" s="63" t="str">
-        <f>Master!E15</f>
         <v>mbaggert@firefly.scc.loc</v>
       </c>
-      <c r="E16" s="64" t="str">
+      <c r="E16" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B15),LEFT(Master!C15))</f>
         <v>MB</v>
       </c>
-      <c r="F16" s="58" t="str">
+      <c r="F16" s="57" t="str">
         <f>Master!C15</f>
         <v>Baggert</v>
       </c>
-      <c r="G16" s="58" t="str">
+      <c r="G16" s="57" t="str">
         <f>Master!B15</f>
         <v>Martha</v>
       </c>
-      <c r="H16" s="64" t="str">
+      <c r="H16" s="63" t="str">
         <f t="shared" si="0"/>
         <v>MB</v>
       </c>
-      <c r="I16" s="64">
-        <f>Master!I15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="str">
+      <c r="I16" s="63">
+        <f>Master!J15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="57" t="str">
+        <f>Master!G16</f>
+        <v>mnestor</v>
+      </c>
+      <c r="B17" s="63">
+        <f>Master!A16</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="63" t="str">
+        <f>Master!H16</f>
+        <v>maestro</v>
+      </c>
+      <c r="D17" s="62" t="str">
         <f>Master!F16</f>
-        <v>mnestor</v>
-      </c>
-      <c r="B17" s="64">
-        <f>Master!A16</f>
-        <v>1</v>
-      </c>
-      <c r="C17" s="64" t="str">
-        <f>Master!G16</f>
-        <v>appleton</v>
-      </c>
-      <c r="D17" s="63" t="str">
-        <f>Master!E16</f>
         <v>mnestor@firefly.scc.loc</v>
       </c>
-      <c r="E17" s="64" t="str">
+      <c r="E17" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B16),LEFT(Master!C16))</f>
         <v>MN</v>
       </c>
-      <c r="F17" s="58" t="str">
+      <c r="F17" s="57" t="str">
         <f>Master!C16</f>
         <v>Nestor</v>
       </c>
-      <c r="G17" s="58" t="str">
+      <c r="G17" s="57" t="str">
         <f>Master!B16</f>
         <v>Mary</v>
       </c>
-      <c r="H17" s="64" t="str">
+      <c r="H17" s="63" t="str">
         <f t="shared" si="0"/>
         <v>MN</v>
       </c>
-      <c r="I17" s="64">
-        <f>Master!I16</f>
+      <c r="I17" s="63">
+        <f>Master!J16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="str">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="str">
+        <f>Master!G17</f>
+        <v>mblair</v>
+      </c>
+      <c r="B18" s="63">
+        <f>Master!A17</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="63" t="str">
+        <f>Master!H17</f>
+        <v>maestro</v>
+      </c>
+      <c r="D18" s="62" t="str">
         <f>Master!F17</f>
-        <v>mblair</v>
-      </c>
-      <c r="B18" s="64">
-        <f>Master!A17</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="64" t="str">
-        <f>Master!G17</f>
-        <v>appleton</v>
-      </c>
-      <c r="D18" s="63" t="str">
-        <f>Master!E17</f>
         <v>mblair@firefly.scc.loc</v>
       </c>
-      <c r="E18" s="64" t="str">
+      <c r="E18" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B17),LEFT(Master!C17))</f>
         <v>MB</v>
       </c>
-      <c r="F18" s="58" t="str">
+      <c r="F18" s="57" t="str">
         <f>Master!C17</f>
         <v>Blair</v>
       </c>
-      <c r="G18" s="58" t="str">
+      <c r="G18" s="57" t="str">
         <f>Master!B17</f>
         <v>Minnie</v>
       </c>
-      <c r="H18" s="64" t="str">
+      <c r="H18" s="63" t="str">
         <f t="shared" si="0"/>
         <v>MB</v>
       </c>
-      <c r="I18" s="64">
-        <f>Master!I17</f>
+      <c r="I18" s="63">
+        <f>Master!J17</f>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="str">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="str">
+        <f>Master!G18</f>
+        <v>mdelazes</v>
+      </c>
+      <c r="B19" s="63">
+        <f>Master!A18</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="63" t="str">
+        <f>Master!H18</f>
+        <v>maestro</v>
+      </c>
+      <c r="D19" s="62" t="str">
         <f>Master!F18</f>
-        <v>mdelazes</v>
-      </c>
-      <c r="B19" s="64">
-        <f>Master!A18</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="64" t="str">
-        <f>Master!G18</f>
-        <v>appleton</v>
-      </c>
-      <c r="D19" s="63" t="str">
-        <f>Master!E18</f>
         <v>mdelazes@firefly.scc.loc</v>
       </c>
-      <c r="E19" s="64" t="str">
+      <c r="E19" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B18),LEFT(Master!C18))</f>
         <v>MD</v>
       </c>
-      <c r="F19" s="58" t="str">
+      <c r="F19" s="57" t="str">
         <f>Master!C18</f>
         <v>DeLazes</v>
       </c>
-      <c r="G19" s="58" t="str">
+      <c r="G19" s="57" t="str">
         <f>Master!B18</f>
         <v>Miquel</v>
       </c>
-      <c r="H19" s="64" t="str">
+      <c r="H19" s="63" t="str">
         <f t="shared" si="0"/>
         <v>MD</v>
       </c>
-      <c r="I19" s="64">
-        <f>Master!I18</f>
+      <c r="I19" s="63">
+        <f>Master!J18</f>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="str">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="str">
+        <f>Master!G19</f>
+        <v>nnewton</v>
+      </c>
+      <c r="B20" s="63">
+        <f>Master!A19</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="63" t="str">
+        <f>Master!H19</f>
+        <v>maestro</v>
+      </c>
+      <c r="D20" s="62" t="str">
         <f>Master!F19</f>
-        <v>nnewton</v>
-      </c>
-      <c r="B20" s="64">
-        <f>Master!A19</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="64" t="str">
-        <f>Master!G19</f>
-        <v>appleton</v>
-      </c>
-      <c r="D20" s="63" t="str">
-        <f>Master!E19</f>
         <v>nnewton@firefly.scc.loc</v>
       </c>
-      <c r="E20" s="64" t="str">
+      <c r="E20" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B19),LEFT(Master!C19))</f>
         <v>NN</v>
       </c>
-      <c r="F20" s="58" t="str">
+      <c r="F20" s="57" t="str">
         <f>Master!C19</f>
         <v>Newton</v>
       </c>
-      <c r="G20" s="58" t="str">
+      <c r="G20" s="57" t="str">
         <f>Master!B19</f>
         <v>Ned</v>
       </c>
-      <c r="H20" s="64" t="str">
+      <c r="H20" s="63" t="str">
         <f t="shared" si="0"/>
         <v>NN</v>
       </c>
-      <c r="I20" s="64">
-        <f>Master!I19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="str">
+      <c r="I20" s="63">
+        <f>Master!J19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="str">
+        <f>Master!G20</f>
+        <v>rsampson</v>
+      </c>
+      <c r="B21" s="63">
+        <f>Master!A20</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="63" t="str">
+        <f>Master!H20</f>
+        <v>maestro</v>
+      </c>
+      <c r="D21" s="62" t="str">
         <f>Master!F20</f>
-        <v>rsampson</v>
-      </c>
-      <c r="B21" s="64">
-        <f>Master!A20</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="64" t="str">
-        <f>Master!G20</f>
-        <v>appleton</v>
-      </c>
-      <c r="D21" s="63" t="str">
-        <f>Master!E20</f>
         <v>rsampson@firefly.scc.loc</v>
       </c>
-      <c r="E21" s="64" t="str">
+      <c r="E21" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B20),LEFT(Master!C20))</f>
         <v>RS</v>
       </c>
-      <c r="F21" s="58" t="str">
+      <c r="F21" s="57" t="str">
         <f>Master!C20</f>
         <v>Sampson</v>
       </c>
-      <c r="G21" s="58" t="str">
+      <c r="G21" s="57" t="str">
         <f>Master!B20</f>
         <v>Rad</v>
       </c>
-      <c r="H21" s="64" t="str">
+      <c r="H21" s="63" t="str">
         <f t="shared" si="0"/>
         <v>RS</v>
       </c>
-      <c r="I21" s="64">
-        <f>Master!I20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="str">
+      <c r="I21" s="63">
+        <f>Master!J20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="str">
+        <f>Master!G21</f>
+        <v>smalloy</v>
+      </c>
+      <c r="B22" s="63">
+        <f>Master!A21</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="63" t="str">
+        <f>Master!H21</f>
+        <v>maestro</v>
+      </c>
+      <c r="D22" s="62" t="str">
         <f>Master!F21</f>
-        <v>smalloy</v>
-      </c>
-      <c r="B22" s="64">
-        <f>Master!A21</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="64" t="str">
-        <f>Master!G21</f>
-        <v>appleton</v>
-      </c>
-      <c r="D22" s="63" t="str">
-        <f>Master!E21</f>
         <v>smalloy@firefly.scc.loc</v>
       </c>
-      <c r="E22" s="64" t="str">
+      <c r="E22" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B21),LEFT(Master!C21))</f>
         <v>SM</v>
       </c>
-      <c r="F22" s="58" t="str">
+      <c r="F22" s="57" t="str">
         <f>Master!C21</f>
         <v>Malloy</v>
       </c>
-      <c r="G22" s="58" t="str">
+      <c r="G22" s="57" t="str">
         <f>Master!B21</f>
         <v>Sarah</v>
       </c>
-      <c r="H22" s="64" t="str">
+      <c r="H22" s="63" t="str">
         <f t="shared" si="0"/>
         <v>SM</v>
       </c>
-      <c r="I22" s="64">
-        <f>Master!I21</f>
+      <c r="I22" s="63">
+        <f>Master!J21</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="str">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="str">
+        <f>Master!G22</f>
+        <v>tswift</v>
+      </c>
+      <c r="B23" s="63">
+        <f>Master!A22</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="63" t="str">
+        <f>Master!H22</f>
+        <v>maestro</v>
+      </c>
+      <c r="D23" s="62" t="str">
         <f>Master!F22</f>
-        <v>tswift</v>
-      </c>
-      <c r="B23" s="64">
-        <f>Master!A22</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="64" t="str">
-        <f>Master!G22</f>
-        <v>appleton</v>
-      </c>
-      <c r="D23" s="63" t="str">
-        <f>Master!E22</f>
         <v>tswift@firefly.scc.loc</v>
       </c>
-      <c r="E23" s="64" t="str">
+      <c r="E23" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B22),LEFT(Master!C22))</f>
         <v>TS</v>
       </c>
-      <c r="F23" s="58" t="str">
+      <c r="F23" s="57" t="str">
         <f>Master!C22</f>
         <v>Swift</v>
       </c>
-      <c r="G23" s="58" t="str">
+      <c r="G23" s="57" t="str">
         <f>Master!B22</f>
         <v>Tom</v>
       </c>
-      <c r="H23" s="64" t="str">
+      <c r="H23" s="63" t="str">
         <f t="shared" si="0"/>
         <v>TS</v>
       </c>
-      <c r="I23" s="64">
-        <f>Master!I22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="str">
+      <c r="I23" s="63">
+        <f>Master!J22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="str">
+        <f>Master!G23</f>
+        <v>wdamon</v>
+      </c>
+      <c r="B24" s="63">
+        <f>Master!A23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="63" t="str">
+        <f>Master!H23</f>
+        <v>maestro</v>
+      </c>
+      <c r="D24" s="62" t="str">
         <f>Master!F23</f>
-        <v>wdamon</v>
-      </c>
-      <c r="B24" s="64">
-        <f>Master!A23</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="64" t="str">
-        <f>Master!G23</f>
-        <v>appleton</v>
-      </c>
-      <c r="D24" s="63" t="str">
-        <f>Master!E23</f>
         <v>wdamon@firefly.scc.loc</v>
       </c>
-      <c r="E24" s="64" t="str">
+      <c r="E24" s="63" t="str">
         <f>CONCATENATE(LEFT(Master!B23),LEFT(Master!C23))</f>
         <v>WD</v>
       </c>
-      <c r="F24" s="58" t="str">
+      <c r="F24" s="57" t="str">
         <f>Master!C23</f>
         <v>Damon</v>
       </c>
-      <c r="G24" s="58" t="str">
+      <c r="G24" s="57" t="str">
         <f>Master!B23</f>
         <v>Wakefield</v>
       </c>
-      <c r="H24" s="64" t="str">
+      <c r="H24" s="63" t="str">
         <f t="shared" si="0"/>
         <v>WD</v>
       </c>
-      <c r="I24" s="64">
-        <f>Master!I23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="str">
+      <c r="I24" s="63">
+        <f>Master!J23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="str">
+        <f>Master!G24</f>
+        <v>wcrawford</v>
+      </c>
+      <c r="B25" s="65">
+        <f>Master!A24</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="65" t="str">
+        <f>Master!H24</f>
+        <v>maestro</v>
+      </c>
+      <c r="D25" s="64" t="str">
         <f>Master!F24</f>
-        <v>wcrawford</v>
-      </c>
-      <c r="B25" s="66">
-        <f>Master!A24</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="66" t="str">
-        <f>Master!G24</f>
-        <v>appleton</v>
-      </c>
-      <c r="D25" s="65" t="str">
-        <f>Master!E24</f>
         <v>wcrawford@firefly.scc.loc</v>
       </c>
-      <c r="E25" s="66" t="str">
+      <c r="E25" s="65" t="str">
         <f>CONCATENATE(LEFT(Master!B24),LEFT(Master!C24))</f>
         <v>WC</v>
       </c>
-      <c r="F25" s="59" t="str">
+      <c r="F25" s="58" t="str">
         <f>Master!C24</f>
         <v>Crawford</v>
       </c>
-      <c r="G25" s="59" t="str">
+      <c r="G25" s="58" t="str">
         <f>Master!B24</f>
         <v>William</v>
       </c>
-      <c r="H25" s="66" t="str">
+      <c r="H25" s="65" t="str">
         <f t="shared" si="0"/>
         <v>WC</v>
       </c>
-      <c r="I25" s="66">
-        <f>Master!I24</f>
+      <c r="I25" s="65">
+        <f>Master!J24</f>
         <v>1</v>
       </c>
     </row>
@@ -4869,4 +4990,616 @@
 http://creativecommons.org/licenses/by/3.0/&amp;C&amp;9Page &amp;P&amp;R&amp;9&amp;F, &amp;A</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Master!B3 &amp; " " &amp; Master!C3</f>
+        <v>Barcoe Jenks</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Master!G3</f>
+        <v>bjenks</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Master!H3</f>
+        <v>maestro</v>
+      </c>
+      <c r="F2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M3 &amp; CHAR(10) &amp; Master!L3</f>
+        <v>--
+Hardware Engineer
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Master!B4 &amp; " " &amp; Master!C4</f>
+        <v>Barton Swift</v>
+      </c>
+      <c r="D3" t="str">
+        <f>Master!G4</f>
+        <v>bswift</v>
+      </c>
+      <c r="E3" t="str">
+        <f>Master!H4</f>
+        <v>maestro</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M4 &amp; CHAR(10) &amp; Master!L4</f>
+        <v>--
+President
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Master!B5 &amp; " " &amp; Master!C5</f>
+        <v>Bub Armstrong</v>
+      </c>
+      <c r="D4" t="str">
+        <f>Master!G5</f>
+        <v>barmstrong</v>
+      </c>
+      <c r="E4" t="str">
+        <f>Master!H5</f>
+        <v>maestro</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M5 &amp; CHAR(10) &amp; Master!L5</f>
+        <v>--
+Mechanical Engineer
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Master!B6 &amp; " " &amp; Master!C6</f>
+        <v>Frank Mason</v>
+      </c>
+      <c r="D5" t="str">
+        <f>Master!G6</f>
+        <v>fmason</v>
+      </c>
+      <c r="E5" t="str">
+        <f>Master!H6</f>
+        <v>maestro</v>
+      </c>
+      <c r="F5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M6 &amp; CHAR(10) &amp; Master!L6</f>
+        <v>--
+Engineering Project Coordinator
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Master!B7 &amp; " " &amp; Master!C7</f>
+        <v>Garret Jackson</v>
+      </c>
+      <c r="D6" t="str">
+        <f>Master!G7</f>
+        <v>gjackson</v>
+      </c>
+      <c r="E6" t="str">
+        <f>Master!H7</f>
+        <v>maestro</v>
+      </c>
+      <c r="F6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M7 &amp; CHAR(10) &amp; Master!L7</f>
+        <v>--
+Production Planner
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Master!B8 &amp; " " &amp; Master!C8</f>
+        <v>Hank Baldwin</v>
+      </c>
+      <c r="D7" t="str">
+        <f>Master!G8</f>
+        <v>hbaldwin</v>
+      </c>
+      <c r="E7" t="str">
+        <f>Master!H8</f>
+        <v>maestro</v>
+      </c>
+      <c r="F7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M8 &amp; CHAR(10) &amp; Master!L8</f>
+        <v>--
+Lead Hand
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Master!B9 &amp; " " &amp; Master!C9</f>
+        <v>Helen Randall</v>
+      </c>
+      <c r="D8" t="str">
+        <f>Master!G9</f>
+        <v>hrandall</v>
+      </c>
+      <c r="E8" t="str">
+        <f>Master!H9</f>
+        <v>maestro</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M9 &amp; CHAR(10) &amp; Master!L9</f>
+        <v>--
+AP Clerk
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Master!B10 &amp; " " &amp; Master!C10</f>
+        <v>Jacab Wood</v>
+      </c>
+      <c r="D9" t="str">
+        <f>Master!G10</f>
+        <v>jwood</v>
+      </c>
+      <c r="E9" t="str">
+        <f>Master!H10</f>
+        <v>maestro</v>
+      </c>
+      <c r="F9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M10 &amp; CHAR(10) &amp; Master!L10</f>
+        <v>--
+Sales Agent
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Master!B11 &amp; " " &amp; Master!C11</f>
+        <v>James Period</v>
+      </c>
+      <c r="D10" t="str">
+        <f>Master!G11</f>
+        <v>jperiod</v>
+      </c>
+      <c r="E10" t="str">
+        <f>Master!H11</f>
+        <v>maestro</v>
+      </c>
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M11 &amp; CHAR(10) &amp; Master!L11</f>
+        <v>--
+Director, Sales &amp; Marketing
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Master!B12 &amp; " " &amp; Master!C12</f>
+        <v>Jennie Haddon</v>
+      </c>
+      <c r="D11" t="str">
+        <f>Master!G12</f>
+        <v>jhaddon</v>
+      </c>
+      <c r="E11" t="str">
+        <f>Master!H12</f>
+        <v>maestro</v>
+      </c>
+      <c r="F11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M12 &amp; CHAR(10) &amp; Master!L12</f>
+        <v>--
+Buyer
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Master!B13 &amp; " " &amp; Master!C13</f>
+        <v>Jennie Morse</v>
+      </c>
+      <c r="D12" t="str">
+        <f>Master!G13</f>
+        <v>jmorse</v>
+      </c>
+      <c r="E12" t="str">
+        <f>Master!H13</f>
+        <v>maestro</v>
+      </c>
+      <c r="F12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M13 &amp; CHAR(10) &amp; Master!L13</f>
+        <v>--
+AR Clerk
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Master!B14 &amp; " " &amp; Master!C14</f>
+        <v>John Sharp</v>
+      </c>
+      <c r="D13" t="str">
+        <f>Master!G14</f>
+        <v>jsharp</v>
+      </c>
+      <c r="E13" t="str">
+        <f>Master!H14</f>
+        <v>maestro</v>
+      </c>
+      <c r="F13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M14 &amp; CHAR(10) &amp; Master!L14</f>
+        <v>--
+Director, Prod Mgmt
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="str">
+        <f>Master!B15 &amp; " " &amp; Master!C15</f>
+        <v>Martha Baggert</v>
+      </c>
+      <c r="D14" t="str">
+        <f>Master!G15</f>
+        <v>mbaggert</v>
+      </c>
+      <c r="E14" t="str">
+        <f>Master!H15</f>
+        <v>maestro</v>
+      </c>
+      <c r="F14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M15 &amp; CHAR(10) &amp; Master!L15</f>
+        <v>--
+Director, Human Resources
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="str">
+        <f>Master!B16 &amp; " " &amp; Master!C16</f>
+        <v>Mary Nestor</v>
+      </c>
+      <c r="D15" t="str">
+        <f>Master!G16</f>
+        <v>mnestor</v>
+      </c>
+      <c r="E15" t="str">
+        <f>Master!H16</f>
+        <v>maestro</v>
+      </c>
+      <c r="F15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M16 &amp; CHAR(10) &amp; Master!L16</f>
+        <v>--
+Director, MIS-IT
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Master!B17 &amp; " " &amp; Master!C17</f>
+        <v>Minnie Blair</v>
+      </c>
+      <c r="D16" t="str">
+        <f>Master!G17</f>
+        <v>mblair</v>
+      </c>
+      <c r="E16" t="str">
+        <f>Master!H17</f>
+        <v>maestro</v>
+      </c>
+      <c r="F16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M17 &amp; CHAR(10) &amp; Master!L17</f>
+        <v>--
+Software Engineer
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Master!B18 &amp; " " &amp; Master!C18</f>
+        <v>Miquel DeLazes</v>
+      </c>
+      <c r="D17" t="str">
+        <f>Master!G18</f>
+        <v>mdelazes</v>
+      </c>
+      <c r="E17" t="str">
+        <f>Master!H18</f>
+        <v>maestro</v>
+      </c>
+      <c r="F17" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M18 &amp; CHAR(10) &amp; Master!L18</f>
+        <v>--
+Director, Manufacturing
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Master!B19 &amp; " " &amp; Master!C19</f>
+        <v>Ned Newton</v>
+      </c>
+      <c r="D18" t="str">
+        <f>Master!G19</f>
+        <v>nnewton</v>
+      </c>
+      <c r="E18" t="str">
+        <f>Master!H19</f>
+        <v>maestro</v>
+      </c>
+      <c r="F18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M19 &amp; CHAR(10) &amp; Master!L19</f>
+        <v>--
+Chief Financial Officer
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Master!B20 &amp; " " &amp; Master!C20</f>
+        <v>Rad Sampson</v>
+      </c>
+      <c r="D19" t="str">
+        <f>Master!G20</f>
+        <v>rsampson</v>
+      </c>
+      <c r="E19" t="str">
+        <f>Master!H20</f>
+        <v>maestro</v>
+      </c>
+      <c r="F19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M20 &amp; CHAR(10) &amp; Master!L20</f>
+        <v>--
+Director, Quality
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Master!B21 &amp; " " &amp; Master!C21</f>
+        <v>Sarah Malloy</v>
+      </c>
+      <c r="D20" t="str">
+        <f>Master!G21</f>
+        <v>smalloy</v>
+      </c>
+      <c r="E20" t="str">
+        <f>Master!H21</f>
+        <v>maestro</v>
+      </c>
+      <c r="F20" t="s">
+        <v>232</v>
+      </c>
+      <c r="G20" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M21 &amp; CHAR(10) &amp; Master!L21</f>
+        <v>--
+Receiver
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Master!B22 &amp; " " &amp; Master!C22</f>
+        <v>Tom Swift</v>
+      </c>
+      <c r="D21" t="str">
+        <f>Master!G22</f>
+        <v>tswift</v>
+      </c>
+      <c r="E21" t="str">
+        <f>Master!H22</f>
+        <v>maestro</v>
+      </c>
+      <c r="F21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M22 &amp; CHAR(10) &amp; Master!L22</f>
+        <v>--
+Director, Engineering
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" t="str">
+        <f>Master!B23 &amp; " " &amp; Master!C23</f>
+        <v>Wakefield Damon</v>
+      </c>
+      <c r="D22" t="str">
+        <f>Master!G23</f>
+        <v>wdamon</v>
+      </c>
+      <c r="E22" t="str">
+        <f>Master!H23</f>
+        <v>maestro</v>
+      </c>
+      <c r="F22" t="s">
+        <v>232</v>
+      </c>
+      <c r="G22" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M23 &amp; CHAR(10) &amp; Master!L23</f>
+        <v>--
+Technical Writer
+Swift Construction Company</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Master!B24 &amp; " " &amp; Master!C24</f>
+        <v>William Crawford</v>
+      </c>
+      <c r="D23" t="str">
+        <f>Master!G24</f>
+        <v>wcrawford</v>
+      </c>
+      <c r="E23" t="str">
+        <f>Master!H24</f>
+        <v>maestro</v>
+      </c>
+      <c r="F23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" t="str">
+        <f xml:space="preserve"> "--" &amp; CHAR(10) &amp; Master!M24 &amp; CHAR(10) &amp; Master!L24</f>
+        <v>--
+Director, Legal
+Swift Construction Company</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scc-files/excel/person.xlsx
+++ b/scc-files/excel/person.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="581" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="581"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="person" sheetId="7" r:id="rId2"/>
-    <sheet name="res.usrs" sheetId="8" r:id="rId3"/>
+    <sheet name="res.users" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">person!$A$1:$H$25</definedName>
@@ -1851,39 +1851,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="40.8984375" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>203</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="AB1" s="29"/>
       <c r="AC1" s="30"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>209</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="69">
         <v>1</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="69">
         <v>1</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="69">
         <v>1</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="69">
         <v>1</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <v>1</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="69">
         <v>1</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="69">
         <v>1</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="69">
         <v>1</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="69">
         <v>1</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="69">
         <v>1</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="69">
         <v>1</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="69">
         <v>1</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="69">
         <v>1</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="69">
         <v>1</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="69">
         <v>1</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A18" s="69">
         <v>1</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>1</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="69">
         <v>1</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>1</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="69">
         <v>1</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>1</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70">
         <v>1</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>208</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B28" s="56"/>
       <c r="C28" s="1" t="s">
         <v>146</v>
@@ -4047,17 +4047,17 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>201</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>215</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>220</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="str">
         <f>Master!G3</f>
         <v>bjenks</v>
@@ -4182,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="str">
         <f>Master!G4</f>
         <v>bswift</v>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="str">
         <f>Master!G5</f>
         <v>barmstrong</v>
@@ -4258,7 +4258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="str">
         <f>Master!G6</f>
         <v>fmason</v>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="str">
         <f>Master!G7</f>
         <v>gjackson</v>
@@ -4334,7 +4334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="str">
         <f>Master!G8</f>
         <v>hbaldwin</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="str">
         <f>Master!G9</f>
         <v>hrandall</v>
@@ -4410,7 +4410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="str">
         <f>Master!G10</f>
         <v>jwood</v>
@@ -4448,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="str">
         <f>Master!G11</f>
         <v>jperiod</v>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="str">
         <f>Master!G12</f>
         <v>jhaddon</v>
@@ -4524,7 +4524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="str">
         <f>Master!G13</f>
         <v>jmorse</v>
@@ -4562,7 +4562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="str">
         <f>Master!G14</f>
         <v>jsharp</v>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="str">
         <f>Master!G15</f>
         <v>mbaggert</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="str">
         <f>Master!G16</f>
         <v>mnestor</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="str">
         <f>Master!G17</f>
         <v>mblair</v>
@@ -4714,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="str">
         <f>Master!G18</f>
         <v>mdelazes</v>
@@ -4752,7 +4752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="str">
         <f>Master!G19</f>
         <v>nnewton</v>
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="str">
         <f>Master!G20</f>
         <v>rsampson</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="str">
         <f>Master!G21</f>
         <v>smalloy</v>
@@ -4866,7 +4866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="str">
         <f>Master!G22</f>
         <v>tswift</v>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="str">
         <f>Master!G23</f>
         <v>wdamon</v>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="str">
         <f>Master!G24</f>
         <v>wcrawford</v>
@@ -4996,15 +4996,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>231</v>
       </c>
@@ -5053,7 +5053,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>231</v>
       </c>
@@ -5079,7 +5079,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>231</v>
       </c>
@@ -5105,7 +5105,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>231</v>
       </c>
@@ -5131,7 +5131,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>231</v>
       </c>
@@ -5157,7 +5157,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>231</v>
       </c>
@@ -5183,7 +5183,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>231</v>
       </c>
@@ -5209,7 +5209,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>231</v>
       </c>
@@ -5235,7 +5235,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>231</v>
       </c>
@@ -5261,7 +5261,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>231</v>
       </c>
@@ -5287,7 +5287,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>231</v>
       </c>
@@ -5313,7 +5313,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>231</v>
       </c>
@@ -5339,7 +5339,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>231</v>
       </c>
@@ -5365,7 +5365,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>231</v>
       </c>
@@ -5391,7 +5391,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>231</v>
       </c>
@@ -5417,7 +5417,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>231</v>
       </c>
@@ -5443,7 +5443,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>231</v>
       </c>
@@ -5469,7 +5469,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>231</v>
       </c>
@@ -5495,7 +5495,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>231</v>
       </c>
@@ -5521,7 +5521,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>231</v>
       </c>
@@ -5547,7 +5547,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>231</v>
       </c>
@@ -5573,7 +5573,7 @@
 Swift Construction Company</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>231</v>
       </c>
